--- a/presentations/layers_data_10_13_2020.xlsx
+++ b/presentations/layers_data_10_13_2020.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1200" windowWidth="12930" windowHeight="14610"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="12930" windowHeight="14610" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="13">
   <si>
     <t>layers</t>
   </si>
@@ -938,7 +939,7 @@
                 <c:order val="7"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$I$1</c15:sqref>
@@ -979,7 +980,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$2:$A$7</c15:sqref>
@@ -1012,7 +1013,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$I$2:$I$7</c15:sqref>
@@ -1044,7 +1045,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000D-AF0E-4BC6-BB55-91C69AD9990E}"/>
                   </c:ext>
@@ -1057,7 +1058,7 @@
                 <c:order val="8"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$J$1</c15:sqref>
@@ -1104,7 +1105,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$2:$A$7</c15:sqref>
@@ -1137,7 +1138,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$J$2:$J$7</c15:sqref>
@@ -1154,7 +1155,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000E-AF0E-4BC6-BB55-91C69AD9990E}"/>
                   </c:ext>
@@ -1167,7 +1168,7 @@
                 <c:order val="9"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$K$1</c15:sqref>
@@ -1214,7 +1215,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$2:$A$7</c15:sqref>
@@ -1247,7 +1248,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$K$2:$K$7</c15:sqref>
@@ -1279,7 +1280,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000F-AF0E-4BC6-BB55-91C69AD9990E}"/>
                   </c:ext>
@@ -1292,7 +1293,7 @@
                 <c:order val="10"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$L$1</c15:sqref>
@@ -1339,7 +1340,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$2:$A$7</c15:sqref>
@@ -1372,7 +1373,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$L$2:$L$7</c15:sqref>
@@ -1389,7 +1390,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000010-AF0E-4BC6-BB55-91C69AD9990E}"/>
                   </c:ext>
@@ -1402,7 +1403,7 @@
                 <c:order val="11"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$M$1</c15:sqref>
@@ -1449,7 +1450,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$2:$A$7</c15:sqref>
@@ -1482,7 +1483,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$M$2:$M$7</c15:sqref>
@@ -1499,7 +1500,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000011-AF0E-4BC6-BB55-91C69AD9990E}"/>
                   </c:ext>
@@ -2515,10 +2516,3801 @@
                 <c:order val="7"/>
                 <c:tx>
                   <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$W$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>nvcc eigen</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$2:$A$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>150</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>200</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>250</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>300</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$W$2:$W$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1.9511768582630513</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2.9190663142689544</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3.8900642552927218</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4.8854084389963015</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>5.8809426535235598</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000007-FFBC-47E7-8F10-0AC003DD9B39}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="8"/>
+                <c:order val="8"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$X$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>icc alpaka</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent3">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$2:$A$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>150</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>200</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>250</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>300</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$X$2:$X$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000008-FFBC-47E7-8F10-0AC003DD9B39}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="9"/>
+                <c:order val="9"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$Y$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>icc eigen</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$2:$A$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>150</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>200</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>250</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>300</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$Y$2:$Y$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1.9127000446710296</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2.8391772021754078</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3.7136870617098365</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4.6129361629712617</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>5.5289333550779611</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000009-FFBC-47E7-8F10-0AC003DD9B39}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="10"/>
+                <c:order val="10"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$Z$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>icc omp</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent5">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent5">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$2:$A$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>150</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>200</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>250</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>300</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$Z$2:$Z$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000A-FFBC-47E7-8F10-0AC003DD9B39}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="11"/>
+                <c:order val="11"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$AA$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>icc tbb</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent6">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent6">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$2:$A$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>150</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>200</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>250</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>300</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$AA$2:$AA$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000B-FFBC-47E7-8F10-0AC003DD9B39}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2100389551"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2100387471"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2100387471"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2100389551"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>time vs layers</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>sheet2!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>gcc alpaka</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>sheet2!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>sheet2!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>3.14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.9249999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.782</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.58</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.266999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.917999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19.66</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22.306000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25.161000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28.161000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30.768999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>33.177</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-335C-483E-9C42-B937C699305F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>sheet2!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>gcc eigen</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>sheet2!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>sheet2!$C$2:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2.827</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.9029999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.6560000000000006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.688000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.52</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.885000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21.545000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23.55</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26.504000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28.443000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31.302</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>34.622999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-335C-483E-9C42-B937C699305F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>sheet2!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>gcc omp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>sheet2!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>sheet2!$D$2:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.792</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.67</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.7069999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.664999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.404999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.839</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.29</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16.998000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18.29</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20.95</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22.074000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-335C-483E-9C42-B937C699305F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>sheet2!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>gcc tbb</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>sheet2!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>sheet2!$E$2:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.4259999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7170000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0330000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.33</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.65</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.9450000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.3089999999999993</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.661</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.879</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.183999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.747999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-335C-483E-9C42-B937C699305F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>sheet2!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>nvcc alpaka</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>sheet2!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>sheet2!$F$2:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>8.6497709999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.844111</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.751132</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.424408799999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.295235999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23.191061000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25.742721</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29.022625000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31.934674000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>34.843530999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>37.728707</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40.653367000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-335C-483E-9C42-B937C699305F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>sheet2!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>nvcc cuda uvm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>sheet2!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>sheet2!$G$2:$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>4.6576199999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.8616590000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.5119059999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.3535210000000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.047897000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.142929000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.992736000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16.877493999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18.915488</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20.693446999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22.568000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24.516672</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-335C-483E-9C42-B937C699305F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>sheet2!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>nvcc cuda manual</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>sheet2!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>sheet2!$H$2:$H$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>3.7743600000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.2248049999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.6759630000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.2256970000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.7447060000000008</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.622729</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.901077000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.930114</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17.698962999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19.582315999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21.555731999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23.233263999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-335C-483E-9C42-B937C699305F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>sheet2!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>nvcc eigen</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>sheet2!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>sheet2!$I$2:$I$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>11.564221</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.290434000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26.682898000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33.786301000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41.685563000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>48.833706999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>56.419910000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>63.784598000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>71.156976999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>78.609273000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>86.238555000000005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>93.440241999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-335C-483E-9C42-B937C699305F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>sheet2!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>icc eigen</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>sheet2!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>sheet2!$K$2:$K$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>12.087</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.143999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.286000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48.515999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>61.218000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>72.819000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>84.65</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>97.037000000000006</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>105.425</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>115.88</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>127.205</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>137.39099999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-335C-483E-9C42-B937C699305F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>sheet2!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>icc omp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>sheet2!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>sheet2!$L$2:$L$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.70299999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.222</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8120000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5249999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.8820000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.4390000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.847</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.3929999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.9409999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.7450000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.09</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.4880000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-335C-483E-9C42-B937C699305F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>sheet2!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>icc tbb</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>sheet2!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>sheet2!$M$2:$M$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.63600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0089999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4279999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.837</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2709999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7210000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5990000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.9870000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5640000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.0750000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.2460000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-335C-483E-9C42-B937C699305F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2100389551"/>
+        <c:axId val="2100387471"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="8"/>
+                <c:order val="8"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>sheet2!$J$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>icc alpaka</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent3">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>sheet2!$A$2:$A$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>36</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>44</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>48</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>sheet2!$J$2:$J$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="12"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000008-335C-483E-9C42-B937C699305F}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2100389551"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2100387471"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2100387471"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2100389551"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>rate of time increase vs layers  </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>sheet2!$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>gcc alpaka</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>sheet2!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>sheet2!$P$2:$P$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8869426751592355</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7968152866242035</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.6878980891719744</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.5436305732484072</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.3878980891719737</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.2611464968152868</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.1038216560509557</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0130573248407639</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.9684713375796186</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.7990445859872608</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10.565923566878981</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9F79-4060-8285-DAD9D8881A5C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>sheet2!$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>gcc eigen</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>sheet2!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>sheet2!$Q$2:$Q$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4418111071807567</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4156349487088788</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.4881499823134066</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.4899186416696146</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.3264945171559965</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.6211531659002487</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.3303855677396541</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.3753095153873378</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.061195613724797</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.072515033604528</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.247258577997878</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9F79-4060-8285-DAD9D8881A5C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>sheet2!$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>gcc omp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>sheet2!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>sheet2!$R$2:$R$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6060267857142856</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.7427455357142856</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5535714285714288</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.9514508928571423</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.9224330357142856</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.72265625</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.5323660714285712</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.4854910714285712</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.206473214285714</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.690848214285714</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.318080357142858</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9F79-4060-8285-DAD9D8881A5C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>sheet2!$S$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>gcc tbb</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>sheet2!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>sheet2!$S$2:$S$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9053295932678824</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8281907433380087</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7377279102384295</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.6633941093969149</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.5715287517531564</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.5280504908835901</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.4761570827489479</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.3302945301542781</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.2454417952314163</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.342215988779804</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.395511921458626</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9F79-4060-8285-DAD9D8881A5C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>sheet2!$U$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>nvcc cuda uvm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>sheet2!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>sheet2!$U$2:$U$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2585094962663337</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6128207110069093</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0082190045559751</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3720048007351395</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8218122131045473</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.2189693448585333</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.6236305237438864</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.0611917674692224</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.4429229950060334</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.8453931407027628</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.2637767786981335</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-9F79-4060-8285-DAD9D8881A5C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>sheet2!$V$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>nvcc cuda manual</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>sheet2!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>sheet2!$V$2:$V$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3842889920410346</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7687668902807363</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1793620640320479</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5818167848323954</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0793906781547067</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.6830289108617089</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.2206132960289953</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.6892620205809719</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.1882480738456316</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.7110959208978471</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.1555506099047248</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-9F79-4060-8285-DAD9D8881A5C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2100389551"/>
+        <c:axId val="2100387471"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>sheet2!$T$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>nvcc alpaka</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent6"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>sheet2!$A$2:$A$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>36</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>44</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>48</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>sheet2!$T$2:$T$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1.3692976380530768</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1.7053783273568746</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2.0144358503826285</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2.3463321745743326</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2.6811184943508914</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2.9761158994845069</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>3.3553055913272161</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>3.6919675676963011</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>4.0282605169547265</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>4.3618157058724449</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>4.6999356399146297</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000006-9F79-4060-8285-DAD9D8881A5C}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="7"/>
+                <c:tx>
+                  <c:strRef>
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$W$1</c15:sqref>
+                          <c15:sqref>sheet2!$W$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2559,30 +6351,48 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$2:$A$7</c15:sqref>
+                          <c15:sqref>sheet2!$A$2:$A$13</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="6"/>
+                      <c:ptCount val="12"/>
                       <c:pt idx="0">
-                        <c:v>50</c:v>
+                        <c:v>4</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>100</c:v>
+                        <c:v>8</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>150</c:v>
+                        <c:v>12</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>200</c:v>
+                        <c:v>16</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>250</c:v>
+                        <c:v>20</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>300</c:v>
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>36</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>44</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>48</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2592,38 +6402,56 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$W$2:$W$7</c15:sqref>
+                          <c15:sqref>sheet2!$W$2:$W$13</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="6"/>
+                      <c:ptCount val="12"/>
                       <c:pt idx="0">
                         <c:v>1</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>1.9511768582630513</c:v>
+                        <c:v>1.6681135720253013</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>2.9190663142689544</c:v>
+                        <c:v>2.3073666613600694</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>3.8900642552927218</c:v>
+                        <c:v>2.9216236009325662</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>4.8854084389963015</c:v>
+                        <c:v>3.6047013456418728</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>5.8809426535235598</c:v>
+                        <c:v>4.2228272012442511</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>4.8788336023671635</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>5.5156848005585504</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>6.1532010673265409</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>6.7976280460222958</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>7.457359644026174</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>8.0801155564218288</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000007-FFBC-47E7-8F10-0AC003DD9B39}"/>
+                    <c16:uniqueId val="{00000007-9F79-4060-8285-DAD9D8881A5C}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -2637,7 +6465,7 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$X$1</c15:sqref>
+                          <c15:sqref>sheet2!$X$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2684,30 +6512,48 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$2:$A$7</c15:sqref>
+                          <c15:sqref>sheet2!$A$2:$A$13</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="6"/>
+                      <c:ptCount val="12"/>
                       <c:pt idx="0">
-                        <c:v>50</c:v>
+                        <c:v>4</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>100</c:v>
+                        <c:v>8</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>150</c:v>
+                        <c:v>12</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>200</c:v>
+                        <c:v>16</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>250</c:v>
+                        <c:v>20</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>300</c:v>
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>36</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>44</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>48</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2717,15 +6563,15 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$X$2:$X$7</c15:sqref>
+                          <c15:sqref>sheet2!$X$2:$X$13</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="6"/>
+                      <c:ptCount val="12"/>
                       <c:pt idx="0">
-                        <c:v>1</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="1">
                         <c:v>0</c:v>
@@ -2740,15 +6586,33 @@
                         <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
                         <c:v>0</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000008-FFBC-47E7-8F10-0AC003DD9B39}"/>
+                    <c16:uniqueId val="{00000008-9F79-4060-8285-DAD9D8881A5C}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -2762,7 +6626,7 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$Y$1</c15:sqref>
+                          <c15:sqref>sheet2!$Y$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2809,30 +6673,48 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$2:$A$7</c15:sqref>
+                          <c15:sqref>sheet2!$A$2:$A$13</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="6"/>
+                      <c:ptCount val="12"/>
                       <c:pt idx="0">
-                        <c:v>50</c:v>
+                        <c:v>4</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>100</c:v>
+                        <c:v>8</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>150</c:v>
+                        <c:v>12</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>200</c:v>
+                        <c:v>16</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>250</c:v>
+                        <c:v>20</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>300</c:v>
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>36</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>44</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>48</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2842,38 +6724,56 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$Y$2:$Y$7</c15:sqref>
+                          <c15:sqref>sheet2!$Y$2:$Y$13</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="6"/>
+                      <c:ptCount val="12"/>
                       <c:pt idx="0">
                         <c:v>1</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>1.9127000446710296</c:v>
+                        <c:v>1.9975179945395878</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>2.8391772021754078</c:v>
+                        <c:v>3.002068337883677</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>3.7136870617098365</c:v>
+                        <c:v>4.013899230578307</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>4.6129361629712617</c:v>
+                        <c:v>5.0647803425167544</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>5.5289333550779611</c:v>
+                        <c:v>6.0245718540580793</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>7.0033920741292306</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>8.028212128733351</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>8.7221808554645488</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>9.5871597584181352</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>10.52411681972367</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>11.366840407048896</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000009-FFBC-47E7-8F10-0AC003DD9B39}"/>
+                    <c16:uniqueId val="{00000009-9F79-4060-8285-DAD9D8881A5C}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -2887,7 +6787,7 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$Z$1</c15:sqref>
+                          <c15:sqref>sheet2!$Z$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2934,30 +6834,48 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$2:$A$7</c15:sqref>
+                          <c15:sqref>sheet2!$A$2:$A$13</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="6"/>
+                      <c:ptCount val="12"/>
                       <c:pt idx="0">
-                        <c:v>50</c:v>
+                        <c:v>4</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>100</c:v>
+                        <c:v>8</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>150</c:v>
+                        <c:v>12</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>200</c:v>
+                        <c:v>16</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>250</c:v>
+                        <c:v>20</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>300</c:v>
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>36</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>44</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>48</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2967,38 +6885,56 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$Z$2:$Z$7</c15:sqref>
+                          <c15:sqref>sheet2!$Z$2:$Z$13</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="6"/>
+                      <c:ptCount val="12"/>
                       <c:pt idx="0">
                         <c:v>1</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>0</c:v>
+                        <c:v>1.7382645803698435</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>0</c:v>
+                        <c:v>2.5775248933143673</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>0</c:v>
+                        <c:v>3.5917496443812236</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>0</c:v>
+                        <c:v>4.0995732574679948</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>0</c:v>
+                        <c:v>4.8918918918918921</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>5.4722617354196306</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>6.2489331436699862</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>7.0284495021337126</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>8.1721194879089616</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>8.6628733997155045</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>9.2290184921763885</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{0000000A-FFBC-47E7-8F10-0AC003DD9B39}"/>
+                    <c16:uniqueId val="{0000000A-9F79-4060-8285-DAD9D8881A5C}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -3012,7 +6948,7 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$AA$1</c15:sqref>
+                          <c15:sqref>sheet2!$AA$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -3059,30 +6995,48 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$2:$A$7</c15:sqref>
+                          <c15:sqref>sheet2!$A$2:$A$13</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="6"/>
+                      <c:ptCount val="12"/>
                       <c:pt idx="0">
-                        <c:v>50</c:v>
+                        <c:v>4</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>100</c:v>
+                        <c:v>8</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>150</c:v>
+                        <c:v>12</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>200</c:v>
+                        <c:v>16</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>250</c:v>
+                        <c:v>20</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>300</c:v>
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>36</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>44</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>48</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3092,38 +7046,56 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$AA$2:$AA$7</c15:sqref>
+                          <c15:sqref>sheet2!$AA$2:$AA$13</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="6"/>
+                      <c:ptCount val="12"/>
                       <c:pt idx="0">
                         <c:v>1</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>0</c:v>
+                        <c:v>1.5864779874213835</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>0</c:v>
+                        <c:v>2.2452830188679243</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>0</c:v>
+                        <c:v>2.8883647798742138</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>0</c:v>
+                        <c:v>3.5707547169811318</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>0</c:v>
+                        <c:v>4.2783018867924527</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>4.9371069182389942</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>5.6588050314465415</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>6.2688679245283021</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>7.1761006289308176</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>7.9795597484276728</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>8.2484276729559749</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{0000000B-FFBC-47E7-8F10-0AC003DD9B39}"/>
+                    <c16:uniqueId val="{0000000B-9F79-4060-8285-DAD9D8881A5C}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -3395,6 +7367,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -3899,6 +7951,1012 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4449,6 +9507,75 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>147637</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>461962</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -4733,7 +9860,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
@@ -5341,4 +10468,1179 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2:O13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" customWidth="1"/>
+    <col min="9" max="10" width="10.85546875" customWidth="1"/>
+    <col min="11" max="11" width="10" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" customWidth="1"/>
+    <col min="13" max="13" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U1" t="s">
+        <v>10</v>
+      </c>
+      <c r="V1" t="s">
+        <v>11</v>
+      </c>
+      <c r="W1" t="s">
+        <v>12</v>
+      </c>
+      <c r="X1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>3.14</v>
+      </c>
+      <c r="C2">
+        <v>2.827</v>
+      </c>
+      <c r="D2">
+        <v>1.792</v>
+      </c>
+      <c r="E2">
+        <v>1.4259999999999999</v>
+      </c>
+      <c r="F2">
+        <v>8.6497709999999994</v>
+      </c>
+      <c r="G2">
+        <v>4.6576199999999996</v>
+      </c>
+      <c r="H2">
+        <v>3.7743600000000002</v>
+      </c>
+      <c r="I2">
+        <v>11.564221</v>
+      </c>
+      <c r="K2">
+        <v>12.087</v>
+      </c>
+      <c r="L2">
+        <v>0.70299999999999996</v>
+      </c>
+      <c r="M2">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="O2">
+        <v>4</v>
+      </c>
+      <c r="P2">
+        <f>B2/B$2</f>
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <f t="shared" ref="Q2:AA13" si="0">C2/C$2</f>
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="V2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="W2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="X2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Z2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AA2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>5.9249999999999998</v>
+      </c>
+      <c r="C3">
+        <v>6.9029999999999996</v>
+      </c>
+      <c r="D3">
+        <v>4.67</v>
+      </c>
+      <c r="E3">
+        <v>2.7170000000000001</v>
+      </c>
+      <c r="F3">
+        <v>11.844111</v>
+      </c>
+      <c r="G3">
+        <v>5.8616590000000004</v>
+      </c>
+      <c r="H3">
+        <v>5.2248049999999999</v>
+      </c>
+      <c r="I3">
+        <v>19.290434000000001</v>
+      </c>
+      <c r="K3">
+        <v>24.143999999999998</v>
+      </c>
+      <c r="L3">
+        <v>1.222</v>
+      </c>
+      <c r="M3">
+        <v>1.0089999999999999</v>
+      </c>
+      <c r="O3">
+        <v>8</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P8" si="1">B3/B$2</f>
+        <v>1.8869426751592355</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" si="0"/>
+        <v>2.4418111071807567</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R8" si="2">D3/D$2</f>
+        <v>2.6060267857142856</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ref="S3:S8" si="3">E3/E$2</f>
+        <v>1.9053295932678824</v>
+      </c>
+      <c r="T3">
+        <f t="shared" ref="T3:T8" si="4">F3/F$2</f>
+        <v>1.3692976380530768</v>
+      </c>
+      <c r="U3">
+        <f t="shared" ref="U3:U8" si="5">G3/G$2</f>
+        <v>1.2585094962663337</v>
+      </c>
+      <c r="V3">
+        <f t="shared" ref="V3:V8" si="6">H3/H$2</f>
+        <v>1.3842889920410346</v>
+      </c>
+      <c r="W3">
+        <f t="shared" ref="W3:W8" si="7">I3/I$2</f>
+        <v>1.6681135720253013</v>
+      </c>
+      <c r="X3" t="e">
+        <f t="shared" ref="X3:X8" si="8">J3/J$2</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y3">
+        <f t="shared" ref="Y3:Y8" si="9">K3/K$2</f>
+        <v>1.9975179945395878</v>
+      </c>
+      <c r="Z3">
+        <f t="shared" ref="Z3:Z8" si="10">L3/L$2</f>
+        <v>1.7382645803698435</v>
+      </c>
+      <c r="AA3">
+        <f t="shared" ref="AA3:AA8" si="11">M3/M$2</f>
+        <v>1.5864779874213835</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>8.782</v>
+      </c>
+      <c r="C4">
+        <v>9.6560000000000006</v>
+      </c>
+      <c r="D4">
+        <v>6.7069999999999999</v>
+      </c>
+      <c r="E4">
+        <v>4.0330000000000004</v>
+      </c>
+      <c r="F4">
+        <v>14.751132</v>
+      </c>
+      <c r="G4">
+        <v>7.5119059999999998</v>
+      </c>
+      <c r="H4">
+        <v>6.6759630000000003</v>
+      </c>
+      <c r="I4">
+        <v>26.682898000000002</v>
+      </c>
+      <c r="K4">
+        <v>36.286000000000001</v>
+      </c>
+      <c r="L4">
+        <v>1.8120000000000001</v>
+      </c>
+      <c r="M4">
+        <v>1.4279999999999999</v>
+      </c>
+      <c r="O4">
+        <v>12</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="1"/>
+        <v>2.7968152866242035</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="0"/>
+        <v>3.4156349487088788</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="2"/>
+        <v>3.7427455357142856</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="3"/>
+        <v>2.8281907433380087</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="4"/>
+        <v>1.7053783273568746</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="5"/>
+        <v>1.6128207110069093</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="6"/>
+        <v>1.7687668902807363</v>
+      </c>
+      <c r="W4">
+        <f t="shared" si="7"/>
+        <v>2.3073666613600694</v>
+      </c>
+      <c r="X4" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" si="9"/>
+        <v>3.002068337883677</v>
+      </c>
+      <c r="Z4">
+        <f t="shared" si="10"/>
+        <v>2.5775248933143673</v>
+      </c>
+      <c r="AA4">
+        <f t="shared" si="11"/>
+        <v>2.2452830188679243</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>11.58</v>
+      </c>
+      <c r="C5">
+        <v>12.688000000000001</v>
+      </c>
+      <c r="D5">
+        <v>8.16</v>
+      </c>
+      <c r="E5">
+        <v>5.33</v>
+      </c>
+      <c r="F5">
+        <v>17.424408799999998</v>
+      </c>
+      <c r="G5">
+        <v>9.3535210000000006</v>
+      </c>
+      <c r="H5">
+        <v>8.2256970000000003</v>
+      </c>
+      <c r="I5">
+        <v>33.786301000000002</v>
+      </c>
+      <c r="K5">
+        <v>48.515999999999998</v>
+      </c>
+      <c r="L5">
+        <v>2.5249999999999999</v>
+      </c>
+      <c r="M5">
+        <v>1.837</v>
+      </c>
+      <c r="O5">
+        <v>16</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="1"/>
+        <v>3.6878980891719744</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="0"/>
+        <v>4.4881499823134066</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="2"/>
+        <v>4.5535714285714288</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="3"/>
+        <v>3.7377279102384295</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="4"/>
+        <v>2.0144358503826285</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="5"/>
+        <v>2.0082190045559751</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="6"/>
+        <v>2.1793620640320479</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="7"/>
+        <v>2.9216236009325662</v>
+      </c>
+      <c r="X5" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" si="9"/>
+        <v>4.013899230578307</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" si="10"/>
+        <v>3.5917496443812236</v>
+      </c>
+      <c r="AA5">
+        <f t="shared" si="11"/>
+        <v>2.8883647798742138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>14.266999999999999</v>
+      </c>
+      <c r="C6">
+        <v>15.52</v>
+      </c>
+      <c r="D6">
+        <v>10.664999999999999</v>
+      </c>
+      <c r="E6">
+        <v>6.65</v>
+      </c>
+      <c r="F6">
+        <v>20.295235999999999</v>
+      </c>
+      <c r="G6">
+        <v>11.047897000000001</v>
+      </c>
+      <c r="H6">
+        <v>9.7447060000000008</v>
+      </c>
+      <c r="I6">
+        <v>41.685563000000002</v>
+      </c>
+      <c r="K6">
+        <v>61.218000000000004</v>
+      </c>
+      <c r="L6">
+        <v>2.8820000000000001</v>
+      </c>
+      <c r="M6">
+        <v>2.2709999999999999</v>
+      </c>
+      <c r="O6">
+        <v>20</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="1"/>
+        <v>4.5436305732484072</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="0"/>
+        <v>5.4899186416696146</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="2"/>
+        <v>5.9514508928571423</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="3"/>
+        <v>4.6633941093969149</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="4"/>
+        <v>2.3463321745743326</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="5"/>
+        <v>2.3720048007351395</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="6"/>
+        <v>2.5818167848323954</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="7"/>
+        <v>3.6047013456418728</v>
+      </c>
+      <c r="X6" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="9"/>
+        <v>5.0647803425167544</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="10"/>
+        <v>4.0995732574679948</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" si="11"/>
+        <v>3.5707547169811318</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>24</v>
+      </c>
+      <c r="B7">
+        <v>16.917999999999999</v>
+      </c>
+      <c r="C7">
+        <v>17.885000000000002</v>
+      </c>
+      <c r="D7">
+        <v>12.404999999999999</v>
+      </c>
+      <c r="E7">
+        <v>7.9450000000000003</v>
+      </c>
+      <c r="F7">
+        <v>23.191061000000001</v>
+      </c>
+      <c r="G7">
+        <v>13.142929000000001</v>
+      </c>
+      <c r="H7">
+        <v>11.622729</v>
+      </c>
+      <c r="I7">
+        <v>48.833706999999997</v>
+      </c>
+      <c r="K7">
+        <v>72.819000000000003</v>
+      </c>
+      <c r="L7">
+        <v>3.4390000000000001</v>
+      </c>
+      <c r="M7">
+        <v>2.7210000000000001</v>
+      </c>
+      <c r="O7">
+        <v>24</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="1"/>
+        <v>5.3878980891719737</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="0"/>
+        <v>6.3264945171559965</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="2"/>
+        <v>6.9224330357142856</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="3"/>
+        <v>5.5715287517531564</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="4"/>
+        <v>2.6811184943508914</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="5"/>
+        <v>2.8218122131045473</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="6"/>
+        <v>3.0793906781547067</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="7"/>
+        <v>4.2228272012442511</v>
+      </c>
+      <c r="X7" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="9"/>
+        <v>6.0245718540580793</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="10"/>
+        <v>4.8918918918918921</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="11"/>
+        <v>4.2783018867924527</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>28</v>
+      </c>
+      <c r="B8">
+        <v>19.66</v>
+      </c>
+      <c r="C8">
+        <v>21.545000000000002</v>
+      </c>
+      <c r="D8">
+        <v>13.839</v>
+      </c>
+      <c r="E8">
+        <v>9.3089999999999993</v>
+      </c>
+      <c r="F8">
+        <v>25.742721</v>
+      </c>
+      <c r="G8">
+        <v>14.992736000000001</v>
+      </c>
+      <c r="H8">
+        <v>13.901077000000001</v>
+      </c>
+      <c r="I8">
+        <v>56.419910000000002</v>
+      </c>
+      <c r="K8">
+        <v>84.65</v>
+      </c>
+      <c r="L8">
+        <v>3.847</v>
+      </c>
+      <c r="M8">
+        <v>3.14</v>
+      </c>
+      <c r="O8">
+        <v>28</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="1"/>
+        <v>6.2611464968152868</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="0"/>
+        <v>7.6211531659002487</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="2"/>
+        <v>7.72265625</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="3"/>
+        <v>6.5280504908835901</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="4"/>
+        <v>2.9761158994845069</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="5"/>
+        <v>3.2189693448585333</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="6"/>
+        <v>3.6830289108617089</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="7"/>
+        <v>4.8788336023671635</v>
+      </c>
+      <c r="X8" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="9"/>
+        <v>7.0033920741292306</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="10"/>
+        <v>5.4722617354196306</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" si="11"/>
+        <v>4.9371069182389942</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>32</v>
+      </c>
+      <c r="B9">
+        <v>22.306000000000001</v>
+      </c>
+      <c r="C9">
+        <v>23.55</v>
+      </c>
+      <c r="D9">
+        <v>15.29</v>
+      </c>
+      <c r="E9">
+        <v>10.661</v>
+      </c>
+      <c r="F9">
+        <v>29.022625000000001</v>
+      </c>
+      <c r="G9">
+        <v>16.877493999999999</v>
+      </c>
+      <c r="H9">
+        <v>15.930114</v>
+      </c>
+      <c r="I9">
+        <v>63.784598000000003</v>
+      </c>
+      <c r="K9">
+        <v>97.037000000000006</v>
+      </c>
+      <c r="L9">
+        <v>4.3929999999999998</v>
+      </c>
+      <c r="M9">
+        <v>3.5990000000000002</v>
+      </c>
+      <c r="O9">
+        <v>32</v>
+      </c>
+      <c r="P9">
+        <f t="shared" ref="P9:P13" si="12">B9/B$2</f>
+        <v>7.1038216560509557</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="0"/>
+        <v>8.3303855677396541</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="0"/>
+        <v>8.5323660714285712</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="0"/>
+        <v>7.4761570827489479</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="0"/>
+        <v>3.3553055913272161</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="0"/>
+        <v>3.6236305237438864</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="0"/>
+        <v>4.2206132960289953</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="0"/>
+        <v>5.5156848005585504</v>
+      </c>
+      <c r="X9" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="0"/>
+        <v>8.028212128733351</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" si="0"/>
+        <v>6.2489331436699862</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" si="0"/>
+        <v>5.6588050314465415</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>36</v>
+      </c>
+      <c r="B10">
+        <v>25.161000000000001</v>
+      </c>
+      <c r="C10">
+        <v>26.504000000000001</v>
+      </c>
+      <c r="D10">
+        <v>16.998000000000001</v>
+      </c>
+      <c r="E10">
+        <v>11.879</v>
+      </c>
+      <c r="F10">
+        <v>31.934674000000001</v>
+      </c>
+      <c r="G10">
+        <v>18.915488</v>
+      </c>
+      <c r="H10">
+        <v>17.698962999999999</v>
+      </c>
+      <c r="I10">
+        <v>71.156976999999998</v>
+      </c>
+      <c r="K10">
+        <v>105.425</v>
+      </c>
+      <c r="L10">
+        <v>4.9409999999999998</v>
+      </c>
+      <c r="M10">
+        <v>3.9870000000000001</v>
+      </c>
+      <c r="O10">
+        <v>36</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="12"/>
+        <v>8.0130573248407639</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="0"/>
+        <v>9.3753095153873378</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="0"/>
+        <v>9.4854910714285712</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="0"/>
+        <v>8.3302945301542781</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="0"/>
+        <v>3.6919675676963011</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="0"/>
+        <v>4.0611917674692224</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="0"/>
+        <v>4.6892620205809719</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="0"/>
+        <v>6.1532010673265409</v>
+      </c>
+      <c r="X10" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="0"/>
+        <v>8.7221808554645488</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="0"/>
+        <v>7.0284495021337126</v>
+      </c>
+      <c r="AA10">
+        <f t="shared" si="0"/>
+        <v>6.2688679245283021</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>40</v>
+      </c>
+      <c r="B11">
+        <v>28.161000000000001</v>
+      </c>
+      <c r="C11">
+        <v>28.443000000000001</v>
+      </c>
+      <c r="D11">
+        <v>18.29</v>
+      </c>
+      <c r="E11">
+        <v>13.183999999999999</v>
+      </c>
+      <c r="F11">
+        <v>34.843530999999999</v>
+      </c>
+      <c r="G11">
+        <v>20.693446999999999</v>
+      </c>
+      <c r="H11">
+        <v>19.582315999999999</v>
+      </c>
+      <c r="I11">
+        <v>78.609273000000002</v>
+      </c>
+      <c r="K11">
+        <v>115.88</v>
+      </c>
+      <c r="L11">
+        <v>5.7450000000000001</v>
+      </c>
+      <c r="M11">
+        <v>4.5640000000000001</v>
+      </c>
+      <c r="O11">
+        <v>40</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="12"/>
+        <v>8.9684713375796186</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="0"/>
+        <v>10.061195613724797</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="0"/>
+        <v>10.206473214285714</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="0"/>
+        <v>9.2454417952314163</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="0"/>
+        <v>4.0282605169547265</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="0"/>
+        <v>4.4429229950060334</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="0"/>
+        <v>5.1882480738456316</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="0"/>
+        <v>6.7976280460222958</v>
+      </c>
+      <c r="X11" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" si="0"/>
+        <v>9.5871597584181352</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" si="0"/>
+        <v>8.1721194879089616</v>
+      </c>
+      <c r="AA11">
+        <f t="shared" si="0"/>
+        <v>7.1761006289308176</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>44</v>
+      </c>
+      <c r="B12">
+        <v>30.768999999999998</v>
+      </c>
+      <c r="C12">
+        <v>31.302</v>
+      </c>
+      <c r="D12">
+        <v>20.95</v>
+      </c>
+      <c r="E12">
+        <v>14.747999999999999</v>
+      </c>
+      <c r="F12">
+        <v>37.728707</v>
+      </c>
+      <c r="G12">
+        <v>22.568000000000001</v>
+      </c>
+      <c r="H12">
+        <v>21.555731999999999</v>
+      </c>
+      <c r="I12">
+        <v>86.238555000000005</v>
+      </c>
+      <c r="K12">
+        <v>127.205</v>
+      </c>
+      <c r="L12">
+        <v>6.09</v>
+      </c>
+      <c r="M12">
+        <v>5.0750000000000002</v>
+      </c>
+      <c r="O12">
+        <v>44</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="12"/>
+        <v>9.7990445859872608</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="0"/>
+        <v>11.072515033604528</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="0"/>
+        <v>11.690848214285714</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="0"/>
+        <v>10.342215988779804</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="0"/>
+        <v>4.3618157058724449</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="0"/>
+        <v>4.8453931407027628</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="0"/>
+        <v>5.7110959208978471</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="0"/>
+        <v>7.457359644026174</v>
+      </c>
+      <c r="X12" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" si="0"/>
+        <v>10.52411681972367</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" si="0"/>
+        <v>8.6628733997155045</v>
+      </c>
+      <c r="AA12">
+        <f t="shared" si="0"/>
+        <v>7.9795597484276728</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>48</v>
+      </c>
+      <c r="B13">
+        <v>33.177</v>
+      </c>
+      <c r="C13">
+        <v>34.622999999999998</v>
+      </c>
+      <c r="D13">
+        <v>22.074000000000002</v>
+      </c>
+      <c r="E13">
+        <v>16.25</v>
+      </c>
+      <c r="F13">
+        <v>40.653367000000003</v>
+      </c>
+      <c r="G13">
+        <v>24.516672</v>
+      </c>
+      <c r="H13">
+        <v>23.233263999999998</v>
+      </c>
+      <c r="I13">
+        <v>93.440241999999998</v>
+      </c>
+      <c r="K13">
+        <v>137.39099999999999</v>
+      </c>
+      <c r="L13">
+        <v>6.4880000000000004</v>
+      </c>
+      <c r="M13">
+        <v>5.2460000000000004</v>
+      </c>
+      <c r="O13">
+        <v>48</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="12"/>
+        <v>10.565923566878981</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="0"/>
+        <v>12.247258577997878</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="0"/>
+        <v>12.318080357142858</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="0"/>
+        <v>11.395511921458626</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="0"/>
+        <v>4.6999356399146297</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="0"/>
+        <v>5.2637767786981335</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="0"/>
+        <v>6.1555506099047248</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="0"/>
+        <v>8.0801155564218288</v>
+      </c>
+      <c r="X13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" si="0"/>
+        <v>11.366840407048896</v>
+      </c>
+      <c r="Z13">
+        <f t="shared" si="0"/>
+        <v>9.2290184921763885</v>
+      </c>
+      <c r="AA13">
+        <f t="shared" si="0"/>
+        <v>8.2484276729559749</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>